--- a/doc/D4_ドキュメント/05_ファイル構成一覧表_D4.xlsx
+++ b/doc/D4_ドキュメント/05_ファイル構成一覧表_D4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C0824-85A4-4334-8B8E-84D782CB56BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF9BE41-4694-42CF-832A-088B2F626A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル全体構成" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="149">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -617,6 +617,22 @@
   </si>
   <si>
     <t>ユーザー１行分のデータを持つエンティティモデル</t>
+  </si>
+  <si>
+    <t>Idpw.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExplanationServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_regist.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.css</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1709,7 +1725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1920,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>31</v>
@@ -2277,7 +2295,7 @@
         <v>59</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>61</v>
@@ -2729,7 +2747,7 @@
         <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>109</v>
@@ -2897,7 +2915,7 @@
         <v>115</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>127</v>
@@ -5614,12 +5632,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7f0595d9e67642f442c2b2e1bf458ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bf08235941c6216aa9314c4f3069bdf">
     <xsd:element name="properties">
@@ -5733,6 +5745,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -5742,15 +5760,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23C95FE9-3450-4FE6-94AE-161B5BE52968}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5764,4 +5773,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/D4_ドキュメント/05_ファイル構成一覧表_D4.xlsx
+++ b/doc/D4_ドキュメント/05_ファイル構成一覧表_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF9BE41-4694-42CF-832A-088B2F626A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214F3E8-8822-400E-B04F-C26F873697AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル全体構成" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="168">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -634,12 +634,152 @@
     <t>calendar.css</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>新規追加</t>
+    <rPh sb="0" eb="4">
+      <t>シンキツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>todo_regist.js</t>
+  </si>
+  <si>
+    <t>Todo追加画面js</t>
+    <rPh sb="4" eb="8">
+      <t>ツイカガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>todo_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountID.css</t>
+  </si>
+  <si>
+    <t>Todo追加画面用css</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録IDを表示画面用css</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalendarCounter.java</t>
+  </si>
+  <si>
+    <t>カレンダーの表示変更用のBean</t>
+    <rPh sb="6" eb="10">
+      <t>ヒョウジヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TodoRejist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountID.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todo追加画面用</t>
+    <rPh sb="4" eb="9">
+      <t>ツイカガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録後IDを表示する画面用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextMonthServlet.java</t>
+  </si>
+  <si>
+    <t>LastMonthServlet.java</t>
+  </si>
+  <si>
+    <t>来月のカレンダー表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ライゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先月のカレンダー表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>センゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,8 +826,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,8 +903,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -797,21 +970,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,21 +1103,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -975,34 +1118,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,13 +1305,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1248,7 +1391,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
@@ -1257,16 +1406,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
@@ -1275,46 +1430,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
@@ -1323,18 +1463,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1350,22 +1478,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1374,34 +1499,76 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1723,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G62"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1759,7 +1926,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
@@ -1775,13 +1942,13 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B48" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1838,7 +2005,7 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1859,7 +2026,7 @@
       <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1880,7 +2047,7 @@
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="41" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1901,7 +2068,7 @@
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="41" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1922,98 +2089,90 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5">
+      <c r="B11" s="74">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="22">
-        <f t="shared" si="0"/>
+      <c r="B12" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="66"/>
+    </row>
+    <row r="14" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="B15" s="76">
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2022,19 +2181,18 @@
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="B16" s="76">
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2043,19 +2201,18 @@
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="B17" s="76">
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2064,19 +2221,18 @@
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="B18" s="76">
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2085,870 +2241,835 @@
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="B19" s="76">
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="76">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="76">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G21" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="76">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D22" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G22" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="23">
-        <f t="shared" si="0"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="73"/>
+    </row>
+    <row r="25" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="19">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G25" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="63">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G26" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="63">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G27" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="63">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G28" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="63">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G29" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="63">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G30" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
+    <row r="31" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="63">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G31" s="46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="23">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1">
+    <row r="32" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="19">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>19</v>
+      <c r="E32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="12">
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="33" t="s">
+      <c r="C33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>19</v>
+      <c r="E33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="7">
+      <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>10</v>
+      <c r="E34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="35">
-        <f>ROW()-2</f>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>10</v>
+      <c r="E35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="12">
+      <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>46</v>
+      <c r="E36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="53">
-        <f>ROW()-2</f>
+      <c r="B37" s="11">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="53" t="s">
+      <c r="C37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="55"/>
+      <c r="E37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="53">
-        <f>ROW()-2</f>
+      <c r="B38" s="6">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="53" t="s">
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="55"/>
+      <c r="E38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="56">
+      <c r="B39" s="30">
         <f>ROW()-2</f>
         <v>37</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="53" t="s">
+      <c r="C39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="55"/>
+      <c r="E39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="53">
-        <f>ROW()-2</f>
+      <c r="B40" s="11">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="53" t="s">
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="55"/>
+      <c r="E40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="53">
+      <c r="B41" s="47">
         <f>ROW()-2</f>
         <v>39</v>
       </c>
-      <c r="C41" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="53" t="s">
+      <c r="C41" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="47">
+        <f>ROW()-2</f>
+        <v>40</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="50">
+        <f>ROW()-2</f>
+        <v>41</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="49"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="47">
+        <f>ROW()-2</f>
+        <v>42</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="49"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="47">
+        <f>ROW()-2</f>
+        <v>43</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F45" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="55"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="52">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="23">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="1">
+      <c r="B46" s="14">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="66"/>
+    </row>
+    <row r="48" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="69">
+        <v>41</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D48" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E48" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="63">
+        <v>42</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="63">
+        <v>43</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="63">
+        <v>44</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="1">
-        <f>ROW()-2</f>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="63">
         <v>45</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D52" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="47" t="s">
+      <c r="G52" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="63">
         <v>46</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D53" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G53" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="1">
-        <f t="shared" ref="B49:B62" si="1">ROW()-2</f>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="63">
         <v>47</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D54" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G54" s="59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="1">
-        <f t="shared" si="1"/>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="63">
         <v>48</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D55" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="65" t="s">
+      <c r="G55" s="59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="1">
-        <f t="shared" si="1"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="63">
         <v>49</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C56" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D56" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E56" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F56" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="67" t="s">
+      <c r="G56" s="60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="3">
-        <f t="shared" si="1"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="63">
         <v>50</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D57" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G57" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="23">
-        <f t="shared" si="1"/>
+    <row r="58" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B58" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="66"/>
+    </row>
+    <row r="59" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="19">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="1">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="1">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="1">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="1">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="1">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="1">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>129</v>
+      <c r="E59" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="1">
-        <f t="shared" si="1"/>
-        <v>58</v>
+      <c r="B60" s="63">
+        <v>52</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>114</v>
@@ -2956,20 +3077,19 @@
       <c r="D60" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>130</v>
+      <c r="E60" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="1">
-        <f t="shared" si="1"/>
-        <v>59</v>
+      <c r="B61" s="63">
+        <v>53</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>114</v>
@@ -2978,35 +3098,190 @@
         <v>115</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="63">
+        <v>54</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="63">
+        <v>55</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="63">
+        <v>56</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="63">
+        <v>57</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="63">
+        <v>58</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="63">
+        <v>59</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G67" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="3">
-        <f t="shared" si="1"/>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="64">
         <v>60</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C68" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D68" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E68" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F68" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G68" s="35" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="65"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3032,19 +3307,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -3052,129 +3327,129 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <v>9</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="13" t="str" cm="1">
+      <c r="G3" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>勝又</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <v>18</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="13" t="str" cm="1">
+      <c r="G4" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>早く終わった人</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>50</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="13" t="str" cm="1">
+      <c r="G5" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>未定</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="42">
+      <c r="B6" s="37">
         <v>60</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="13" t="str" cm="1">
+      <c r="G6" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
         <v>未定</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>41</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="13" t="str" cm="1">
+      <c r="G7" s="12" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>全員</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>51</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>116</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="13" t="str" cm="1">
+      <c r="G8" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>全員</v>
+        <v>勝又</v>
       </c>
     </row>
   </sheetData>
@@ -3236,16 +3511,16 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="str" cm="1">
+      <c r="G4" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
         <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3257,93 +3532,93 @@
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="str" cm="1">
+      <c r="G5" s="6" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>早く終わった人</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="36">
+      <c r="B6" s="31">
         <v>41</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="7" t="str" cm="1">
+      <c r="G6" s="6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>全員</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>42</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="7" t="str" cm="1">
+      <c r="G7" s="6" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>未定</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="36">
+      <c r="B8" s="31">
         <v>51</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="7" t="str" cm="1">
+      <c r="G8" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>全員</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>52</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="7" t="str" cm="1">
+      <c r="G9" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>未定</v>
+        <v>篠崎</v>
       </c>
     </row>
   </sheetData>
@@ -3425,9 +3700,9 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="str" cm="1">
+      <c r="G4" s="1" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>早く終わった人</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3443,12 +3718,12 @@
       <c r="E5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>永田</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3464,138 +3739,138 @@
       <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>永田</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>26</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="32" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>篠崎</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="33">
+      <c r="B8" s="28">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>篠崎</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="36">
+      <c r="B9" s="31">
         <v>41</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="1" t="str" cm="1">
+      <c r="G9" s="1" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>全員</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>43</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="1" t="str" cm="1">
+      <c r="G10" s="1" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>未定</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>51</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>全員</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>53</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>121</v>
       </c>
       <c r="G12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>未定</v>
+        <v>篠崎</v>
       </c>
     </row>
   </sheetData>
@@ -3663,7 +3938,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3684,45 +3959,45 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>19</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>永田</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="24">
+      <c r="B6" s="20">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>永田</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3732,18 +4007,18 @@
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>篠崎</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3753,64 +4028,64 @@
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>篠崎</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>41</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="1" t="str" cm="1">
+      <c r="G9" s="1" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>全員</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>44</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>未定</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3819,7 +4094,7 @@
       <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3827,28 +4102,28 @@
       </c>
       <c r="G11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>全員</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>54</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>未定</v>
+        <v>斎藤</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +4185,7 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="68" t="str" cm="1">
+      <c r="G3" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>鈴木</v>
       </c>
@@ -3931,9 +4206,9 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="68" t="str" cm="1">
+      <c r="G4" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>鈴木</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3946,15 +4221,15 @@
       <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="68" t="str" cm="1">
+      <c r="G5" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>永田</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3967,15 +4242,15 @@
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="68" t="str" cm="1">
+      <c r="G6" s="61" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3985,18 +4260,18 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="68" t="str" cm="1">
+      <c r="G7" s="61" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4006,16 +4281,16 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="68" t="str" cm="1">
+      <c r="G8" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
         <v>永田</v>
       </c>
@@ -4027,37 +4302,37 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="68" t="str" cm="1">
+      <c r="G9" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
         <v>永田</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>25</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="68" t="str" cm="1">
+      <c r="G10" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
         <v>永田</v>
       </c>
@@ -4069,18 +4344,18 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="68" t="str" cm="1">
+      <c r="G11" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>斎藤</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4099,13 +4374,13 @@
       <c r="F12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="68" t="str" cm="1">
+      <c r="G12" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>斎藤</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4114,223 +4389,223 @@
       <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="68" t="str" cm="1">
+      <c r="G13" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
+        <v>鈴木</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="52">
+        <v>35</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="52" t="str" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
+        <v>鈴木</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="51">
+        <v>36</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="52" t="str" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
+        <v>斎藤</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="54">
+        <v>37</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="52" t="str" cm="1">
+        <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B16+2))</f>
+        <v>斎藤</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="52">
+        <v>38</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="52" t="str" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B17+2))</f>
         <v>永田</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="58">
-        <v>35</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="58" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="51">
+        <v>39</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="58" cm="1">
-        <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="57">
-        <v>36</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="58" cm="1">
-        <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="60">
-        <v>37</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="58" cm="1">
-        <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B16+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="58">
-        <v>38</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="58" cm="1">
-        <f t="array" aca="1" ref="G17" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B17+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="57">
-        <v>39</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="58" cm="1">
+      <c r="G18" s="52" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B18+2))</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>40</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="68" t="str" cm="1">
+      <c r="G19" s="61" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B19+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="32">
+      <c r="B20" s="27">
         <v>41</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="68" t="str" cm="1">
+      <c r="G20" s="61" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B20+2))</f>
-        <v>全員</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>45</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="68" t="str" cm="1">
+      <c r="G21" s="61" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B21+2))</f>
-        <v>鈴木</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="32">
+      <c r="B22" s="27">
         <v>51</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="68" t="str" cm="1">
+      <c r="G22" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B22+2))</f>
-        <v>全員</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>55</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="68" t="str" cm="1">
+      <c r="G23" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B23+2))</f>
         <v>未定</v>
       </c>
@@ -4393,7 +4668,7 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="68" t="str" cm="1">
+      <c r="G3" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>勝又</v>
       </c>
@@ -4414,9 +4689,9 @@
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="68" t="str" cm="1">
+      <c r="G4" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>勝又</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4429,15 +4704,15 @@
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="68" t="str" cm="1">
+      <c r="G5" s="61" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4447,18 +4722,18 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="68" t="str" cm="1">
+      <c r="G6" s="61" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4468,18 +4743,18 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="68" t="str" cm="1">
+      <c r="G7" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>勝又</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4489,22 +4764,22 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="68" t="str" cm="1">
+      <c r="G8" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>勝又</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4513,88 +4788,88 @@
       <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="68" t="str" cm="1">
+      <c r="G9" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>永田</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="58">
+      <c r="B10" s="52">
         <v>35</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="58" cm="1">
+      <c r="G10" s="52" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="58">
+      <c r="B11" s="52">
         <v>36</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="58" cm="1">
+      <c r="G11" s="52" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>0</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="35">
+      <c r="B12" s="30">
         <v>41</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>92</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="68" t="str" cm="1">
+      <c r="G12" s="61" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>全員</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <v>46</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="24" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -4603,13 +4878,13 @@
       <c r="F13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="68" t="str" cm="1">
+      <c r="G13" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="35">
+      <c r="B14" s="30">
         <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -4618,15 +4893,15 @@
       <c r="D14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>116</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="68" t="str" cm="1">
+      <c r="G14" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
-        <v>全員</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4645,9 +4920,9 @@
       <c r="F15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="68" t="str" cm="1">
+      <c r="G15" s="61" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
-        <v>未定</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +4985,7 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="68" t="str" cm="1">
+      <c r="G3" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>篠崎</v>
       </c>
@@ -4731,9 +5006,9 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="68" t="str" cm="1">
+      <c r="G4" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>篠崎</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4746,15 +5021,15 @@
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="68" t="str" cm="1">
+      <c r="G5" s="61" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4764,18 +5039,18 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="68" t="str" cm="1">
+      <c r="G6" s="61" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4785,16 +5060,16 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="68" t="str" cm="1">
+      <c r="G7" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
         <v>永田</v>
       </c>
@@ -4806,18 +5081,18 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="68" t="str" cm="1">
+      <c r="G8" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>勝又</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4827,18 +5102,18 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="68" t="str" cm="1">
+      <c r="G9" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>勝又</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4848,18 +5123,18 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="68" t="str" cm="1">
+      <c r="G10" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>鈴木</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4878,82 +5153,82 @@
       <c r="F11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="68" t="str" cm="1">
+      <c r="G11" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
+        <v>勝又</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="52">
+        <v>35</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="52" t="str" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
+        <v>鈴木</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="52">
+        <v>36</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="52" t="str" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
         <v>斎藤</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="58">
-        <v>35</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="58" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="54">
+        <v>37</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="58" cm="1">
-        <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="58">
-        <v>36</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="58" cm="1">
-        <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="60">
-        <v>37</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="58" cm="1">
+      <c r="G14" s="52" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
-        <v>0</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <v>47</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="24" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -4962,9 +5237,9 @@
       <c r="F15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="68" t="str" cm="1">
+      <c r="G15" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
-        <v>篠崎</v>
+        <v>未定</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4983,9 +5258,9 @@
       <c r="F16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="68" t="str" cm="1">
+      <c r="G16" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B16+2))</f>
-        <v>未定</v>
+        <v>全員</v>
       </c>
     </row>
   </sheetData>
@@ -5010,210 +5285,210 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="68" t="str" cm="1">
+      <c r="G3" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>篠崎</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="68" t="str" cm="1">
+      <c r="G4" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>篠崎</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="68" t="str" cm="1">
+      <c r="G5" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
         <v>永田</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="68" t="str" cm="1">
+      <c r="G6" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>鈴木</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="58">
+      <c r="B7" s="52">
         <v>38</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="58" cm="1">
+      <c r="G7" s="52" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
+        <v>永田</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="27">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="61" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="32">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="6">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="68" t="str" cm="1">
-        <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>全員</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="7">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="68" t="str" cm="1">
+      <c r="G9" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>篠崎</v>
+        <v>未定</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="32">
+      <c r="B10" s="27">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="68" t="str" cm="1">
+      <c r="G10" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>全員</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>58</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="68" t="str" cm="1">
+      <c r="G11" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
         <v>未定</v>
       </c>
@@ -5240,378 +5515,378 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7" t="str" cm="1">
+      <c r="G3" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>斎藤</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7" t="str" cm="1">
+      <c r="G4" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>斎藤</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="7" t="str" cm="1">
+      <c r="G5" s="6" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="7" t="str" cm="1">
+      <c r="G6" s="6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="7" t="str" cm="1">
+      <c r="G7" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
         <v>永田</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="7" t="str" cm="1">
+      <c r="G8" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
+        <v>永田</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="6">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
+        <v>永田</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
+        <v>篠崎</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
+        <v>鈴木</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="52">
+        <v>35</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="53" t="str" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
+        <v>鈴木</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="52">
+        <v>36</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="53" t="str" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
+        <v>斎藤</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="54">
+        <v>37</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="53" t="str" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
+        <v>斎藤</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="6">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="6" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="27">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="6" cm="1">
+        <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B16+2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="6">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B17+2))</f>
+        <v>未定</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="27">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="G18" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B18+2))</f>
         <v>勝又</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="7">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="6">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>勝又</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="7">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>鈴木</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="7">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>永田</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="58">
-        <v>35</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="59" cm="1">
-        <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="58">
-        <v>36</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="59" cm="1">
-        <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="60">
-        <v>37</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="59" cm="1">
-        <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="7">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
-        <v>永田</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="32">
-        <v>41</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B16+2))</f>
-        <v>全員</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="7">
-        <v>49</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G17" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B17+2))</f>
-        <v>斎藤</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="32">
-        <v>51</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="str" cm="1">
-        <f t="array" aca="1" ref="G18" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B18+2))</f>
-        <v>全員</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="7">
-        <v>59</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="7" t="str" cm="1">
+      <c r="G19" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B19+2))</f>
         <v>未定</v>
       </c>
@@ -5623,15 +5898,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7f0595d9e67642f442c2b2e1bf458ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bf08235941c6216aa9314c4f3069bdf">
     <xsd:element name="properties">
@@ -5745,6 +6011,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5752,14 +6027,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23C95FE9-3450-4FE6-94AE-161B5BE52968}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5775,6 +6042,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>

--- a/doc/D4_ドキュメント/05_ファイル構成一覧表_D4.xlsx
+++ b/doc/D4_ドキュメント/05_ファイル構成一覧表_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\D4_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214F3E8-8822-400E-B04F-C26F873697AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65BA5F6-740D-4F29-929B-F894911C3D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル全体構成" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="187">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -642,16 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>todo_regist.js</t>
-  </si>
-  <si>
-    <t>Todo追加画面js</t>
-    <rPh sb="4" eb="8">
-      <t>ツイカガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>todo_regist.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -699,18 +689,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TodoRejist.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AccountID.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Todo追加画面用</t>
-    <rPh sb="4" eb="9">
-      <t>ツイカガメンヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -743,12 +722,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NextMonthServlet.java</t>
-  </si>
-  <si>
-    <t>LastMonthServlet.java</t>
-  </si>
-  <si>
     <t>来月のカレンダー表示画面用</t>
     <rPh sb="0" eb="2">
       <t>ライゲツ</t>
@@ -772,6 +745,271 @@
     <rPh sb="10" eb="13">
       <t>ガメンヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LastMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoalNextMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoalLastMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AchieveNextMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AchieveLastMonthServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduleNextDayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduleLastDayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskNextDayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskLastDayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示日の前日スケジュール表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示日の翌日スケジュール表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨクジツ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>ヒョウジガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示月の翌月の目標追加表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヅキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨクゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>ヒョウジガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示月の前月の目標追加表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヅキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>ヒョウジガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示月の翌月の達成度入力・表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヅキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨクゲツ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タッセイド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>ヒョウジガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示月の前月の達成度入力・表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヅキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タッセイド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>ヒョウジガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示日の翌日のタスク追加画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨクジツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示日の前日のタスク追加画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AllA.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TodoA.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SgA.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長期目標・短期目標・Todoすべての達成度・内容をもつBean</t>
+    <rPh sb="0" eb="4">
+      <t>チョウキモクヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>タンキモクヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>タッセイド</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Todoの達成度・内容をもつBean</t>
+    <rPh sb="5" eb="8">
+      <t>タッセイド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短期目標の達成度・内容をもつBean</t>
+    <rPh sb="0" eb="4">
+      <t>タンキモクヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タッセイド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -779,7 +1017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,15 +1039,6 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -842,7 +1071,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,12 +1135,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1481,18 +1704,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1514,10 +1725,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
@@ -1529,37 +1740,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
@@ -1568,7 +1764,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1890,17 +2095,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G70"/>
+  <dimension ref="B2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
@@ -1948,7 +2153,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2089,12 +2294,12 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="74">
+      <c r="B11" s="65">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2110,553 +2315,551 @@
       <c r="F11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="F13" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D14" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E14" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F16" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="65"/>
-    </row>
-    <row r="13" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="66" t="s">
+      <c r="F18" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D19" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="E19" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="66"/>
-    </row>
-    <row r="14" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="18">
+      <c r="F19" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="18">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="76">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="76">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="76">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G25" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="76">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G26" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="76">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G27" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="76">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="5">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G28" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="76">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="5">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G29" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="76">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="5">
         <v>18</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="72" t="s">
+    <row r="31" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C31" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D31" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="72"/>
-    </row>
-    <row r="24" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="73"/>
-    </row>
-    <row r="25" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="19">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="63">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="63">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="63">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="63">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="63">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="63">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>46</v>
-      </c>
+      <c r="E31" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="64"/>
     </row>
     <row r="32" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="19">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="4">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="4">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="4">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="4">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="4">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B38" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="11">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="30">
-        <f>ROW()-2</f>
-        <v>37</v>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="4">
+        <v>26</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>6</v>
@@ -2665,293 +2868,290 @@
         <v>59</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="4">
+        <v>27</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="4">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="4">
+        <v>29</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="4">
+        <v>31</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="4">
+        <v>32</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="4">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G46" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="11">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="4">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="G47" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="47">
-        <f>ROW()-2</f>
-        <v>39</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="47" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="14">
+        <v>35</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="49"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="47">
-        <f>ROW()-2</f>
-        <v>40</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="47" t="s">
+      <c r="E48" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="49"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="50">
-        <f>ROW()-2</f>
-        <v>41</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="47" t="s">
+      <c r="E49" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="59"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="49"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="47">
-        <f>ROW()-2</f>
-        <v>42</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="47" t="s">
+      <c r="E50" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="59"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="49"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="47">
-        <f>ROW()-2</f>
-        <v>43</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="49"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="14">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B47" s="66" t="s">
+      <c r="E51" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" s="59"/>
+    </row>
+    <row r="52" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B52" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C52" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D52" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="66"/>
-    </row>
-    <row r="48" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="69">
-        <v>41</v>
-      </c>
-      <c r="C48" s="15" t="s">
+      <c r="G52" s="60"/>
+    </row>
+    <row r="53" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="69">
+        <v>36</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D53" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="63">
-        <v>42</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="63">
-        <v>43</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="63">
-        <v>44</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="63">
-        <v>45</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="63">
-        <v>46</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="63">
-        <v>47</v>
+      <c r="B54" s="69">
+        <v>37</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>90</v>
@@ -2959,19 +3159,19 @@
       <c r="D54" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>106</v>
+      <c r="E54" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>25</v>
+        <v>96</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="63">
-        <v>48</v>
+      <c r="B55" s="69">
+        <v>38</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>90</v>
@@ -2980,176 +3180,178 @@
         <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="69">
+        <v>39</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="69">
+        <v>40</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="69">
+        <v>41</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="69">
+        <v>42</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="69">
+        <v>43</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G55" s="59" t="s">
+      <c r="G60" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="63">
-        <v>49</v>
-      </c>
-      <c r="C56" s="28" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="69">
+        <v>44</v>
+      </c>
+      <c r="C61" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D61" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G56" s="60" t="s">
+      <c r="G61" s="56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="63">
-        <v>50</v>
-      </c>
-      <c r="C57" s="1" t="s">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="69">
+        <v>45</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="62" t="s">
+      <c r="D62" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="66"/>
-    </row>
-    <row r="59" spans="2:7" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="19">
-        <v>51</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="63">
-        <v>52</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="63">
-        <v>53</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="63">
-        <v>54</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="63">
-        <v>55</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="69">
+        <v>46</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>125</v>
+      <c r="E63" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="63">
-        <v>56</v>
+      <c r="B64" s="69">
+        <v>47</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>114</v>
@@ -3157,19 +3359,19 @@
       <c r="D64" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>148</v>
+      <c r="E64" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="63">
-        <v>57</v>
+      <c r="B65" s="69">
+        <v>48</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>114</v>
@@ -3178,18 +3380,18 @@
         <v>115</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="63">
-        <v>58</v>
+      <c r="B66" s="69">
+        <v>49</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>114</v>
@@ -3198,18 +3400,18 @@
         <v>115</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="63">
-        <v>59</v>
+      <c r="B67" s="69">
+        <v>50</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>114</v>
@@ -3218,70 +3420,150 @@
         <v>115</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="69">
+        <v>51</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="69">
+        <v>52</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="69">
+        <v>53</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="69">
+        <v>54</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="64">
-        <v>60</v>
-      </c>
-      <c r="C68" s="11" t="s">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="69">
+        <v>55</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F72" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G68" s="35" t="s">
+      <c r="G72" s="35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="65" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C69" s="65" t="s">
+      <c r="C73" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D73" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="65" t="s">
+      <c r="E73" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="G69" s="65"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="65" t="s">
+      <c r="G73" s="59"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="65" t="s">
+      <c r="C74" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D70" s="65" t="s">
+      <c r="D74" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="E70" s="65" t="s">
+      <c r="E74" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="G70" s="65"/>
+      <c r="G74" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3365,7 +3647,7 @@
       </c>
       <c r="G4" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>篠崎</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3384,9 +3666,9 @@
       <c r="F5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="12" t="str" cm="1">
+      <c r="G5" s="12" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>鈴木</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3426,9 +3708,9 @@
       <c r="F7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="12" cm="1">
+      <c r="G7" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3449,7 +3731,7 @@
       </c>
       <c r="G8" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
   </sheetData>
@@ -3532,9 +3814,9 @@
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" cm="1">
+      <c r="G5" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>0</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3553,9 +3835,9 @@
       <c r="F6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="6" cm="1">
+      <c r="G6" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3574,9 +3856,9 @@
       <c r="F7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="6" cm="1">
+      <c r="G7" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3597,7 +3879,7 @@
       </c>
       <c r="G8" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3618,7 +3900,7 @@
       </c>
       <c r="G9" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>篠崎</v>
+        <v>未定</v>
       </c>
     </row>
   </sheetData>
@@ -3700,9 +3982,9 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" cm="1">
+      <c r="G4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>0</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3765,7 +4047,7 @@
       </c>
       <c r="G7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>永田</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3786,7 +4068,7 @@
       </c>
       <c r="G8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>永田</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3805,9 +4087,9 @@
       <c r="F9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="1" cm="1">
+      <c r="G9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3826,9 +4108,9 @@
       <c r="F10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="1" cm="1">
+      <c r="G10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>0</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3849,7 +4131,7 @@
       </c>
       <c r="G11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3870,7 +4152,7 @@
       </c>
       <c r="G12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>篠崎</v>
+        <v>未定</v>
       </c>
     </row>
   </sheetData>
@@ -3955,7 +4237,7 @@
       </c>
       <c r="G4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>早く終わった人</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4018,7 +4300,7 @@
       </c>
       <c r="G7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>永田</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4039,7 +4321,7 @@
       </c>
       <c r="G8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>永田</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4049,7 +4331,7 @@
       <c r="C9" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="53" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -4058,9 +4340,9 @@
       <c r="F9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="1" cm="1">
+      <c r="G9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4081,7 +4363,7 @@
       </c>
       <c r="G10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>永田</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4102,7 +4384,7 @@
       </c>
       <c r="G11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4123,7 +4405,7 @@
       </c>
       <c r="G12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>斎藤</v>
+        <v>未定</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4467,7 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="61" t="str" cm="1">
+      <c r="G3" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>鈴木</v>
       </c>
@@ -4206,9 +4488,9 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="61" t="str" cm="1">
+      <c r="G4" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>早く終わった人</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4227,7 +4509,7 @@
       <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="61" t="str" cm="1">
+      <c r="G5" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
         <v>斎藤</v>
       </c>
@@ -4248,9 +4530,9 @@
       <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="61" cm="1">
+      <c r="G6" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>0</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4269,9 +4551,9 @@
       <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="61" cm="1">
+      <c r="G7" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>0</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4290,9 +4572,9 @@
       <c r="F8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="61" t="str" cm="1">
+      <c r="G8" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>永田</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4311,9 +4593,9 @@
       <c r="F9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="61" t="str" cm="1">
+      <c r="G9" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>永田</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4332,9 +4614,9 @@
       <c r="F10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="61" t="str" cm="1">
+      <c r="G10" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>永田</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4353,9 +4635,9 @@
       <c r="F11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="61" t="str" cm="1">
+      <c r="G11" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>勝又</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4374,9 +4656,9 @@
       <c r="F12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="61" t="str" cm="1">
+      <c r="G12" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>勝又</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4395,114 +4677,114 @@
       <c r="F13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="61" t="str" cm="1">
+      <c r="G13" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
-        <v>鈴木</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="52">
+      <c r="B14" s="48">
         <v>35</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="52" t="str" cm="1">
+      <c r="G14" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
-        <v>鈴木</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="51">
+      <c r="B15" s="47">
         <v>36</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="52" t="str" cm="1">
+      <c r="G15" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
-        <v>斎藤</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="54">
+      <c r="B16" s="50">
         <v>37</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="52" t="s">
+      <c r="C16" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="52" t="str" cm="1">
+      <c r="G16" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B16+2))</f>
-        <v>斎藤</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="52">
+      <c r="B17" s="48">
         <v>38</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="52" t="s">
+      <c r="C17" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="52" t="str" cm="1">
+      <c r="G17" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B17+2))</f>
-        <v>永田</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="51">
+      <c r="B18" s="47">
         <v>39</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="52" cm="1">
+      <c r="G18" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B18+2))</f>
-        <v>0</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4521,9 +4803,9 @@
       <c r="F19" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="61" cm="1">
+      <c r="G19" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B19+2))</f>
-        <v>0</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4542,9 +4824,9 @@
       <c r="F20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="61" cm="1">
+      <c r="G20" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B20+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4563,9 +4845,9 @@
       <c r="F21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="61" cm="1">
+      <c r="G21" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B21+2))</f>
-        <v>0</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4584,9 +4866,9 @@
       <c r="F22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="61" t="str" cm="1">
+      <c r="G22" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B22+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4605,9 +4887,9 @@
       <c r="F23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="61" t="str" cm="1">
+      <c r="G23" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B23+2))</f>
-        <v>未定</v>
+        <v>鈴木</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +4950,7 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="61" t="str" cm="1">
+      <c r="G3" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>勝又</v>
       </c>
@@ -4689,9 +4971,9 @@
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="61" t="str" cm="1">
+      <c r="G4" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>早く終わった人</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4710,9 +4992,9 @@
       <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="61" cm="1">
+      <c r="G5" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>0</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4731,9 +5013,9 @@
       <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="61" cm="1">
+      <c r="G6" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>0</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4752,9 +5034,9 @@
       <c r="F7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="61" t="str" cm="1">
+      <c r="G7" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>永田</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4773,9 +5055,9 @@
       <c r="F8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="61" t="str" cm="1">
+      <c r="G8" s="57" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4794,51 +5076,51 @@
       <c r="F9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="61" t="str" cm="1">
+      <c r="G9" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>鈴木</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="52">
+      <c r="B10" s="48">
         <v>35</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="52" t="str" cm="1">
+      <c r="G10" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>鈴木</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="52">
+      <c r="B11" s="48">
         <v>36</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="52" t="str" cm="1">
+      <c r="G11" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>斎藤</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4857,9 +5139,9 @@
       <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="61" cm="1">
+      <c r="G12" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4878,9 +5160,9 @@
       <c r="F13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="61" t="str" cm="1">
+      <c r="G13" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
-        <v>全員</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4899,9 +5181,9 @@
       <c r="F14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="61" t="str" cm="1">
+      <c r="G14" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -4920,9 +5202,9 @@
       <c r="F15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="61" cm="1">
+      <c r="G15" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
-        <v>0</v>
+        <v>勝又</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +5267,7 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="61" t="str" cm="1">
+      <c r="G3" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>篠崎</v>
       </c>
@@ -5006,9 +5288,9 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="61" t="str" cm="1">
+      <c r="G4" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>鈴木</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5027,9 +5309,9 @@
       <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="61" cm="1">
+      <c r="G5" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>0</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5048,9 +5330,9 @@
       <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="61" cm="1">
+      <c r="G6" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>0</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5069,9 +5351,9 @@
       <c r="F7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="61" t="str" cm="1">
+      <c r="G7" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>永田</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5090,9 +5372,9 @@
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="61" t="str" cm="1">
+      <c r="G8" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>永田</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5108,12 +5390,12 @@
       <c r="E9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="61" t="str" cm="1">
+      <c r="G9" s="57" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5132,9 +5414,9 @@
       <c r="F10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="61" t="str" cm="1">
+      <c r="G10" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>篠崎</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5153,72 +5435,72 @@
       <c r="F11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="61" t="str" cm="1">
+      <c r="G11" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>勝又</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="52">
+      <c r="B12" s="48">
         <v>35</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="52" t="s">
+      <c r="C12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="52" t="str" cm="1">
+      <c r="G12" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>鈴木</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="52">
+      <c r="B13" s="48">
         <v>36</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="52" t="str" cm="1">
+      <c r="G13" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
-        <v>斎藤</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="54">
+      <c r="B14" s="50">
         <v>37</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="52" t="str" cm="1">
+      <c r="G14" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
-        <v>斎藤</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5237,9 +5519,9 @@
       <c r="F15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="61" t="str" cm="1">
+      <c r="G15" s="57" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
-        <v>未定</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5258,9 +5540,9 @@
       <c r="F16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="61" t="str" cm="1">
+      <c r="G16" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B16+2))</f>
-        <v>全員</v>
+        <v>篠崎</v>
       </c>
     </row>
   </sheetData>
@@ -5320,7 +5602,7 @@
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="61" t="str" cm="1">
+      <c r="G3" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B3+2))</f>
         <v>篠崎</v>
       </c>
@@ -5341,9 +5623,9 @@
       <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="61" t="str" cm="1">
+      <c r="G4" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>勝又</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5362,9 +5644,9 @@
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="61" t="str" cm="1">
+      <c r="G5" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>永田</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5383,30 +5665,30 @@
       <c r="F6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="61" t="str" cm="1">
+      <c r="G6" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
+        <v>永田</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="48">
+        <v>38</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
         <v>篠崎</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="52">
-        <v>38</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="52" t="str" cm="1">
-        <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>永田</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5425,9 +5707,9 @@
       <c r="F8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="61" cm="1">
+      <c r="G8" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5446,9 +5728,9 @@
       <c r="F9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="61" t="str" cm="1">
+      <c r="G9" s="57" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>未定</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5467,9 +5749,9 @@
       <c r="F10" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="61" t="str" cm="1">
+      <c r="G10" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5488,9 +5770,9 @@
       <c r="F11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="61" t="str" cm="1">
+      <c r="G11" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>未定</v>
+        <v>篠崎</v>
       </c>
     </row>
   </sheetData>
@@ -5573,7 +5855,7 @@
       </c>
       <c r="G4" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B4+2))</f>
-        <v>篠崎</v>
+        <v>斎藤</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5592,9 +5874,9 @@
       <c r="F5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="6" cm="1">
+      <c r="G5" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B5+2))</f>
-        <v>0</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5613,9 +5895,9 @@
       <c r="F6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="6" cm="1">
+      <c r="G6" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B6+2))</f>
-        <v>0</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5636,7 +5918,7 @@
       </c>
       <c r="G7" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B7+2))</f>
-        <v>永田</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5657,7 +5939,7 @@
       </c>
       <c r="G8" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B8+2))</f>
-        <v>永田</v>
+        <v>早く終わった人</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5676,9 +5958,9 @@
       <c r="F9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="6" t="str" cm="1">
+      <c r="G9" s="6" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B9+2))</f>
-        <v>永田</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5699,7 +5981,7 @@
       </c>
       <c r="G10" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B10+2))</f>
-        <v>篠崎</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5720,70 +6002,70 @@
       </c>
       <c r="G11" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B11+2))</f>
-        <v>鈴木</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="52">
+      <c r="B12" s="48">
         <v>35</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="52" t="s">
+      <c r="C12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="53" t="str" cm="1">
+      <c r="G12" s="49" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B12+2))</f>
-        <v>鈴木</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="52">
+      <c r="B13" s="48">
         <v>36</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="53" t="str" cm="1">
+      <c r="G13" s="49" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B13+2))</f>
-        <v>斎藤</v>
+        <v>永田</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="54">
+      <c r="B14" s="50">
         <v>37</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="53" t="str" cm="1">
+      <c r="G14" s="49" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B14+2))</f>
-        <v>斎藤</v>
+        <v>篠崎</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5802,9 +6084,9 @@
       <c r="F15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="6" cm="1">
+      <c r="G15" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B15+2))</f>
-        <v>0</v>
+        <v>勝又</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5823,9 +6105,9 @@
       <c r="F16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="6" cm="1">
+      <c r="G16" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B16+2))</f>
-        <v>0</v>
+        <v>鈴木</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5844,9 +6126,9 @@
       <c r="F17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="6" t="str" cm="1">
+      <c r="G17" s="6" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B17+2))</f>
-        <v>未定</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5867,7 +6149,7 @@
       </c>
       <c r="G18" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B18+2))</f>
-        <v>勝又</v>
+        <v>全員</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -5888,7 +6170,7 @@
       </c>
       <c r="G19" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT("ファイル全体構成!G"&amp;(B19+2))</f>
-        <v>未定</v>
+        <v>斎藤</v>
       </c>
     </row>
   </sheetData>
@@ -5898,6 +6180,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005566D498701232449F4CDB149C3E6B59" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7f0595d9e67642f442c2b2e1bf458ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bf08235941c6216aa9314c4f3069bdf">
     <xsd:element name="properties">
@@ -6011,15 +6302,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6027,6 +6309,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23C95FE9-3450-4FE6-94AE-161B5BE52968}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6042,14 +6332,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
